--- a/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 млрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/06,10,23 ЗПФ/дв 06,10,23 млрсч зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\06,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66108CA4-A5C9-44EE-A4A2-E3056E69C82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA4545D-4811-46A8-89DC-5659E5216AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,69 +651,15 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>Период: 22.09.2023 - 29.09.2023</v>
+            <v>Период: 29.09.2023 - 06.10.2023</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Склад</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>Количество</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>крат</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>заяв</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>раз</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>заказ</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>заказ</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>ср</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>заказ 1</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>заказ 2</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>коррекция</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>кон ост</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>ост без заказа</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>ср 07,09</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>ср 15,09</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>ср 22,09</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>коментарий</v>
-          </cell>
-          <cell r="V3" t="str">
-            <v>вес 1</v>
-          </cell>
-          <cell r="W3" t="str">
-            <v>вес 2</v>
-          </cell>
-          <cell r="X3" t="str">
-            <v>вес 3</v>
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>АКЦИИ</v>
           </cell>
         </row>
         <row r="4">
@@ -721,72 +667,7 @@
             <v>Номенклатура</v>
           </cell>
           <cell r="B4" t="str">
-            <v>Ед. Изм.</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Начальный остаток</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Приход</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Расход</v>
-          </cell>
-          <cell r="F4" t="str">
-            <v>Конечный остаток</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>17399.580000000002</v>
-          </cell>
-          <cell r="F5">
-            <v>12738.68</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-          <cell r="I5">
-            <v>0</v>
-          </cell>
-          <cell r="J5">
-            <v>16820.86</v>
-          </cell>
-          <cell r="K5">
-            <v>1298.7</v>
-          </cell>
-          <cell r="L5">
-            <v>3479.9160000000006</v>
-          </cell>
-          <cell r="M5">
-            <v>16237.192000000001</v>
-          </cell>
-          <cell r="N5">
-            <v>0</v>
-          </cell>
-          <cell r="O5">
-            <v>0</v>
-          </cell>
-          <cell r="R5">
-            <v>3741.7999999999997</v>
-          </cell>
-          <cell r="S5">
-            <v>3455.4599999999996</v>
-          </cell>
-          <cell r="T5">
-            <v>4061.78</v>
-          </cell>
-          <cell r="V5">
-            <v>10162.26</v>
-          </cell>
-          <cell r="W5">
-            <v>0</v>
-          </cell>
-          <cell r="X5">
-            <v>0</v>
-          </cell>
-          <cell r="Y5" t="str">
-            <v>крат кор</v>
+            <v>АКЦИИ</v>
           </cell>
         </row>
         <row r="6">
@@ -794,52 +675,7 @@
             <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B6" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C6">
-            <v>1244</v>
-          </cell>
-          <cell r="E6">
-            <v>1041</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-          <cell r="G6">
-            <v>0.3</v>
-          </cell>
-          <cell r="J6">
-            <v>1404</v>
-          </cell>
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-          <cell r="L6">
-            <v>208.2</v>
-          </cell>
-          <cell r="M6">
-            <v>1093.3999999999996</v>
-          </cell>
-          <cell r="P6">
-            <v>11.999999999999998</v>
-          </cell>
-          <cell r="Q6">
-            <v>6.7483189241114321</v>
-          </cell>
-          <cell r="R6">
-            <v>179.6</v>
-          </cell>
-          <cell r="S6">
-            <v>186.8</v>
-          </cell>
-          <cell r="T6">
-            <v>202.2</v>
-          </cell>
-          <cell r="V6">
-            <v>328.01999999999987</v>
-          </cell>
-          <cell r="Y6">
-            <v>12</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="7">
@@ -847,1465 +683,181 @@
             <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B7" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C7">
-            <v>928</v>
-          </cell>
-          <cell r="D7">
-            <v>2196</v>
-          </cell>
-          <cell r="E7">
-            <v>682</v>
-          </cell>
-          <cell r="F7">
-            <v>2209</v>
-          </cell>
-          <cell r="G7">
-            <v>0.3</v>
-          </cell>
-          <cell r="J7">
-            <v>0</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-          <cell r="L7">
-            <v>136.4</v>
-          </cell>
-          <cell r="P7">
-            <v>16.195014662756599</v>
-          </cell>
-          <cell r="Q7">
-            <v>16.195014662756599</v>
-          </cell>
-          <cell r="R7">
-            <v>197.8</v>
-          </cell>
-          <cell r="S7">
-            <v>184.4</v>
-          </cell>
-          <cell r="T7">
-            <v>261.60000000000002</v>
-          </cell>
-          <cell r="V7">
-            <v>0</v>
-          </cell>
-          <cell r="Y7">
-            <v>12</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>Готовые чебуреки Сочный мегачебурек.Готовые жареные.ВЕС  ПОКОМ</v>
           </cell>
-          <cell r="B8" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C8">
-            <v>490.56</v>
-          </cell>
-          <cell r="D8">
-            <v>4.4800000000000004</v>
-          </cell>
-          <cell r="E8">
-            <v>351.68</v>
-          </cell>
-          <cell r="F8">
-            <v>4.4800000000000004</v>
-          </cell>
-          <cell r="G8">
-            <v>1</v>
-          </cell>
-          <cell r="J8">
-            <v>199.36</v>
-          </cell>
-          <cell r="K8">
-            <v>0</v>
-          </cell>
-          <cell r="L8">
-            <v>70.335999999999999</v>
-          </cell>
-          <cell r="M8">
-            <v>640.19199999999989</v>
-          </cell>
-          <cell r="P8">
-            <v>12</v>
-          </cell>
-          <cell r="Q8">
-            <v>2.8980891719745223</v>
-          </cell>
-          <cell r="R8">
-            <v>0</v>
-          </cell>
-          <cell r="S8">
-            <v>0</v>
-          </cell>
-          <cell r="T8">
-            <v>40.32</v>
-          </cell>
-          <cell r="V8">
-            <v>640.19199999999989</v>
-          </cell>
-          <cell r="Y8">
-            <v>2.2400000000000002</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
           </cell>
-          <cell r="B9" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C9">
-            <v>218.3</v>
-          </cell>
-          <cell r="E9">
-            <v>107.3</v>
-          </cell>
-          <cell r="F9">
-            <v>96.2</v>
-          </cell>
-          <cell r="G9">
-            <v>1</v>
-          </cell>
-          <cell r="J9">
-            <v>251.60000000000002</v>
-          </cell>
-          <cell r="K9">
-            <v>0</v>
-          </cell>
-          <cell r="L9">
-            <v>21.46</v>
-          </cell>
-          <cell r="P9">
-            <v>16.206896551724139</v>
-          </cell>
-          <cell r="Q9">
-            <v>16.206896551724139</v>
-          </cell>
-          <cell r="R9">
-            <v>0</v>
-          </cell>
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>32.56</v>
-          </cell>
-          <cell r="V9">
-            <v>0</v>
-          </cell>
-          <cell r="Y9">
-            <v>3.7</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C10">
-            <v>585</v>
-          </cell>
-          <cell r="E10">
-            <v>343</v>
-          </cell>
-          <cell r="F10">
-            <v>242</v>
-          </cell>
-          <cell r="G10">
-            <v>1</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-          <cell r="K10">
-            <v>0</v>
-          </cell>
-          <cell r="L10">
-            <v>68.599999999999994</v>
-          </cell>
-          <cell r="M10">
-            <v>581.19999999999993</v>
-          </cell>
-          <cell r="P10">
-            <v>12</v>
-          </cell>
-          <cell r="Q10">
-            <v>3.5276967930029159</v>
-          </cell>
-          <cell r="R10">
-            <v>1.8</v>
-          </cell>
-          <cell r="S10">
-            <v>73.08</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="V10">
-            <v>581.19999999999993</v>
-          </cell>
-          <cell r="Y10">
-            <v>1.8</v>
+            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C11">
-            <v>281.2</v>
-          </cell>
-          <cell r="E11">
-            <v>140.6</v>
-          </cell>
-          <cell r="G11">
-            <v>1</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>1298.7</v>
-          </cell>
-          <cell r="L11">
-            <v>28.119999999999997</v>
-          </cell>
-          <cell r="P11">
-            <v>46.184210526315795</v>
-          </cell>
-          <cell r="Q11">
-            <v>46.184210526315795</v>
-          </cell>
-          <cell r="R11">
-            <v>160.69999999999999</v>
-          </cell>
-          <cell r="S11">
-            <v>35.58</v>
-          </cell>
-          <cell r="T11">
-            <v>177.6</v>
-          </cell>
-          <cell r="V11">
-            <v>0</v>
-          </cell>
-          <cell r="Y11">
-            <v>3.7</v>
+            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C12">
-            <v>1425</v>
-          </cell>
-          <cell r="D12">
-            <v>1218</v>
-          </cell>
-          <cell r="E12">
-            <v>867</v>
-          </cell>
-          <cell r="F12">
-            <v>1600</v>
-          </cell>
-          <cell r="G12">
-            <v>0.25</v>
-          </cell>
-          <cell r="J12">
-            <v>198</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-          <cell r="L12">
-            <v>173.4</v>
-          </cell>
-          <cell r="M12">
-            <v>282.80000000000018</v>
-          </cell>
-          <cell r="P12">
-            <v>12</v>
-          </cell>
-          <cell r="Q12">
-            <v>10.369088811995386</v>
-          </cell>
-          <cell r="R12">
-            <v>203.2</v>
-          </cell>
-          <cell r="S12">
-            <v>98.2</v>
-          </cell>
-          <cell r="T12">
-            <v>196</v>
-          </cell>
-          <cell r="V12">
-            <v>70.700000000000045</v>
-          </cell>
-          <cell r="Y12">
-            <v>6</v>
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C13">
-            <v>1825</v>
-          </cell>
-          <cell r="E13">
-            <v>1005</v>
-          </cell>
-          <cell r="F13">
-            <v>776</v>
-          </cell>
-          <cell r="G13">
-            <v>0.25</v>
-          </cell>
-          <cell r="J13">
-            <v>0</v>
-          </cell>
-          <cell r="K13">
-            <v>0</v>
-          </cell>
-          <cell r="L13">
-            <v>201</v>
-          </cell>
-          <cell r="M13">
-            <v>1636</v>
-          </cell>
-          <cell r="P13">
-            <v>12</v>
-          </cell>
-          <cell r="Q13">
-            <v>3.8606965174129355</v>
-          </cell>
-          <cell r="R13">
-            <v>156</v>
-          </cell>
-          <cell r="S13">
-            <v>216.2</v>
-          </cell>
-          <cell r="T13">
-            <v>138.19999999999999</v>
-          </cell>
-          <cell r="V13">
-            <v>409</v>
-          </cell>
-          <cell r="Y13">
-            <v>12</v>
+            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C14">
-            <v>960</v>
-          </cell>
-          <cell r="D14">
-            <v>1140</v>
-          </cell>
-          <cell r="E14">
-            <v>732</v>
-          </cell>
-          <cell r="F14">
-            <v>1146</v>
-          </cell>
-          <cell r="G14">
-            <v>1</v>
-          </cell>
-          <cell r="J14">
-            <v>252</v>
-          </cell>
-          <cell r="K14">
-            <v>0</v>
-          </cell>
-          <cell r="L14">
-            <v>146.4</v>
-          </cell>
-          <cell r="M14">
-            <v>358.80000000000018</v>
-          </cell>
-          <cell r="P14">
-            <v>12</v>
-          </cell>
-          <cell r="Q14">
-            <v>9.5491803278688518</v>
-          </cell>
-          <cell r="R14">
-            <v>99.6</v>
-          </cell>
-          <cell r="S14">
-            <v>0</v>
-          </cell>
-          <cell r="T14">
-            <v>206.4</v>
-          </cell>
-          <cell r="V14">
-            <v>358.80000000000018</v>
-          </cell>
-          <cell r="Y14">
-            <v>6</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C15">
-            <v>274</v>
-          </cell>
-          <cell r="D15">
-            <v>160</v>
-          </cell>
-          <cell r="E15">
-            <v>202</v>
-          </cell>
-          <cell r="F15">
-            <v>34</v>
-          </cell>
-          <cell r="G15">
-            <v>0.75</v>
-          </cell>
-          <cell r="J15">
-            <v>280</v>
-          </cell>
-          <cell r="K15">
-            <v>0</v>
-          </cell>
-          <cell r="L15">
-            <v>40.4</v>
-          </cell>
-          <cell r="M15">
-            <v>170.79999999999995</v>
-          </cell>
-          <cell r="P15">
-            <v>12</v>
-          </cell>
-          <cell r="Q15">
-            <v>7.772277227722773</v>
-          </cell>
-          <cell r="R15">
-            <v>42.4</v>
-          </cell>
-          <cell r="S15">
-            <v>39.799999999999997</v>
-          </cell>
-          <cell r="T15">
-            <v>37</v>
-          </cell>
-          <cell r="V15">
-            <v>128.09999999999997</v>
-          </cell>
-          <cell r="Y15">
-            <v>8</v>
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C16">
-            <v>879</v>
-          </cell>
-          <cell r="D16">
-            <v>8</v>
-          </cell>
-          <cell r="E16">
-            <v>417</v>
-          </cell>
-          <cell r="F16">
-            <v>370</v>
-          </cell>
-          <cell r="G16">
-            <v>0.9</v>
-          </cell>
-          <cell r="J16">
-            <v>32</v>
-          </cell>
-          <cell r="K16">
-            <v>0</v>
-          </cell>
-          <cell r="L16">
-            <v>83.4</v>
-          </cell>
-          <cell r="M16">
-            <v>598.80000000000007</v>
-          </cell>
-          <cell r="P16">
-            <v>12</v>
-          </cell>
-          <cell r="Q16">
-            <v>4.8201438848920857</v>
-          </cell>
-          <cell r="R16">
-            <v>90.8</v>
-          </cell>
-          <cell r="S16">
-            <v>99</v>
-          </cell>
-          <cell r="T16">
-            <v>67.2</v>
-          </cell>
-          <cell r="V16">
-            <v>538.92000000000007</v>
-          </cell>
-          <cell r="Y16">
-            <v>8</v>
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C17">
-            <v>1988</v>
-          </cell>
-          <cell r="D17">
-            <v>1200</v>
-          </cell>
-          <cell r="E17">
-            <v>1248</v>
-          </cell>
-          <cell r="F17">
-            <v>1740</v>
-          </cell>
-          <cell r="G17">
-            <v>0.9</v>
-          </cell>
-          <cell r="J17">
-            <v>0</v>
-          </cell>
-          <cell r="K17">
-            <v>0</v>
-          </cell>
-          <cell r="L17">
-            <v>249.6</v>
-          </cell>
-          <cell r="M17">
-            <v>1255.1999999999998</v>
-          </cell>
-          <cell r="P17">
-            <v>12</v>
-          </cell>
-          <cell r="Q17">
-            <v>6.9711538461538467</v>
-          </cell>
-          <cell r="R17">
-            <v>207.6</v>
-          </cell>
-          <cell r="S17">
-            <v>254.8</v>
-          </cell>
-          <cell r="T17">
-            <v>238.8</v>
-          </cell>
-          <cell r="V17">
-            <v>1129.6799999999998</v>
-          </cell>
-          <cell r="Y17">
-            <v>8</v>
+            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C18">
-            <v>265</v>
-          </cell>
-          <cell r="E18">
-            <v>150</v>
-          </cell>
-          <cell r="F18">
-            <v>95</v>
-          </cell>
-          <cell r="G18">
-            <v>0.43</v>
-          </cell>
-          <cell r="J18">
-            <v>128</v>
-          </cell>
-          <cell r="K18">
-            <v>0</v>
-          </cell>
-          <cell r="L18">
-            <v>30</v>
-          </cell>
-          <cell r="M18">
-            <v>137</v>
-          </cell>
-          <cell r="P18">
-            <v>12</v>
-          </cell>
-          <cell r="Q18">
-            <v>7.4333333333333336</v>
-          </cell>
-          <cell r="R18">
-            <v>43</v>
-          </cell>
-          <cell r="S18">
-            <v>32.200000000000003</v>
-          </cell>
-          <cell r="T18">
-            <v>31</v>
-          </cell>
-          <cell r="V18">
-            <v>58.91</v>
-          </cell>
-          <cell r="Y18">
-            <v>16</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C19">
-            <v>3425</v>
-          </cell>
-          <cell r="E19">
-            <v>1907</v>
-          </cell>
-          <cell r="F19">
-            <v>1015</v>
-          </cell>
-          <cell r="G19">
-            <v>1</v>
-          </cell>
-          <cell r="J19">
-            <v>1800</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>381.4</v>
-          </cell>
-          <cell r="M19">
-            <v>1761.7999999999993</v>
-          </cell>
-          <cell r="P19">
-            <v>11.999999999999998</v>
-          </cell>
-          <cell r="Q19">
-            <v>7.3807026743576305</v>
-          </cell>
-          <cell r="R19">
-            <v>374</v>
-          </cell>
-          <cell r="S19">
-            <v>408</v>
-          </cell>
-          <cell r="T19">
-            <v>374</v>
-          </cell>
-          <cell r="V19">
-            <v>1761.7999999999993</v>
-          </cell>
-          <cell r="Y19">
-            <v>5</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C20">
-            <v>1652</v>
-          </cell>
-          <cell r="D20">
-            <v>1606</v>
-          </cell>
-          <cell r="E20">
-            <v>1035</v>
-          </cell>
-          <cell r="F20">
-            <v>1990</v>
-          </cell>
-          <cell r="G20">
-            <v>0.9</v>
-          </cell>
-          <cell r="J20">
-            <v>104</v>
-          </cell>
-          <cell r="K20">
-            <v>0</v>
-          </cell>
-          <cell r="L20">
-            <v>207</v>
-          </cell>
-          <cell r="M20">
-            <v>390</v>
-          </cell>
-          <cell r="P20">
-            <v>12</v>
-          </cell>
-          <cell r="Q20">
-            <v>10.115942028985508</v>
-          </cell>
-          <cell r="R20">
-            <v>198.8</v>
-          </cell>
-          <cell r="S20">
-            <v>230</v>
-          </cell>
-          <cell r="T20">
-            <v>243.4</v>
-          </cell>
-          <cell r="V20">
-            <v>351</v>
-          </cell>
-          <cell r="Y20">
-            <v>8</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C21">
-            <v>629</v>
-          </cell>
-          <cell r="E21">
-            <v>209</v>
-          </cell>
-          <cell r="F21">
-            <v>368</v>
-          </cell>
-          <cell r="G21">
-            <v>0.43</v>
-          </cell>
-          <cell r="J21">
-            <v>0</v>
-          </cell>
-          <cell r="K21">
-            <v>0</v>
-          </cell>
-          <cell r="L21">
-            <v>41.8</v>
-          </cell>
-          <cell r="M21">
-            <v>133.59999999999997</v>
-          </cell>
-          <cell r="P21">
-            <v>12</v>
-          </cell>
-          <cell r="Q21">
-            <v>8.803827751196172</v>
-          </cell>
-          <cell r="R21">
-            <v>59.2</v>
-          </cell>
-          <cell r="S21">
-            <v>0.8</v>
-          </cell>
-          <cell r="T21">
-            <v>39.799999999999997</v>
-          </cell>
-          <cell r="V21">
-            <v>57.447999999999986</v>
-          </cell>
-          <cell r="Y21">
-            <v>16</v>
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
           <cell r="B22" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C22">
-            <v>217</v>
-          </cell>
-          <cell r="E22">
-            <v>152</v>
-          </cell>
-          <cell r="G22">
-            <v>0.7</v>
-          </cell>
-          <cell r="J22">
-            <v>400</v>
-          </cell>
-          <cell r="K22">
-            <v>0</v>
-          </cell>
-          <cell r="L22">
-            <v>30.4</v>
-          </cell>
-          <cell r="P22">
-            <v>13.157894736842106</v>
-          </cell>
-          <cell r="Q22">
-            <v>13.157894736842106</v>
-          </cell>
-          <cell r="R22">
-            <v>26.6</v>
-          </cell>
-          <cell r="S22">
-            <v>0</v>
-          </cell>
-          <cell r="T22">
-            <v>41.4</v>
-          </cell>
-          <cell r="V22">
-            <v>0</v>
-          </cell>
-          <cell r="Y22">
-            <v>8</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C23">
-            <v>237</v>
-          </cell>
-          <cell r="D23">
-            <v>3</v>
-          </cell>
-          <cell r="E23">
-            <v>204</v>
-          </cell>
-          <cell r="F23">
-            <v>16</v>
-          </cell>
-          <cell r="G23">
-            <v>0.9</v>
-          </cell>
-          <cell r="J23">
-            <v>16</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>40.799999999999997</v>
-          </cell>
-          <cell r="M23">
-            <v>457.59999999999997</v>
-          </cell>
-          <cell r="P23">
-            <v>12</v>
-          </cell>
-          <cell r="Q23">
-            <v>0.78431372549019618</v>
-          </cell>
-          <cell r="R23">
-            <v>33.4</v>
-          </cell>
-          <cell r="S23">
-            <v>30.6</v>
-          </cell>
-          <cell r="T23">
-            <v>18.8</v>
-          </cell>
-          <cell r="V23">
-            <v>411.84</v>
-          </cell>
-          <cell r="Y23">
-            <v>8</v>
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
           </cell>
           <cell r="B24" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C24">
-            <v>2575</v>
-          </cell>
-          <cell r="E24">
-            <v>1435</v>
-          </cell>
-          <cell r="F24">
-            <v>690</v>
-          </cell>
-          <cell r="G24">
-            <v>1</v>
-          </cell>
-          <cell r="J24">
-            <v>2400</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>287</v>
-          </cell>
-          <cell r="M24">
-            <v>354</v>
-          </cell>
-          <cell r="P24">
-            <v>12</v>
-          </cell>
-          <cell r="Q24">
-            <v>10.766550522648084</v>
-          </cell>
-          <cell r="R24">
-            <v>379.48</v>
-          </cell>
-          <cell r="S24">
-            <v>329</v>
-          </cell>
-          <cell r="T24">
-            <v>362</v>
-          </cell>
-          <cell r="V24">
-            <v>354</v>
-          </cell>
-          <cell r="Y24">
-            <v>5</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C25">
-            <v>1695</v>
-          </cell>
-          <cell r="D25">
-            <v>140</v>
-          </cell>
-          <cell r="E25">
-            <v>1219</v>
-          </cell>
-          <cell r="F25">
-            <v>207</v>
-          </cell>
-          <cell r="G25">
-            <v>1</v>
-          </cell>
-          <cell r="J25">
-            <v>1800</v>
-          </cell>
-          <cell r="K25">
-            <v>0</v>
-          </cell>
-          <cell r="L25">
-            <v>243.8</v>
-          </cell>
-          <cell r="M25">
-            <v>918.60000000000036</v>
-          </cell>
-          <cell r="P25">
-            <v>12.000000000000002</v>
-          </cell>
-          <cell r="Q25">
-            <v>8.2321575061525838</v>
-          </cell>
-          <cell r="R25">
-            <v>231</v>
-          </cell>
-          <cell r="S25">
-            <v>235.6</v>
-          </cell>
-          <cell r="T25">
-            <v>257.60000000000002</v>
-          </cell>
-          <cell r="V25">
-            <v>918.60000000000036</v>
-          </cell>
-          <cell r="Y25">
-            <v>5</v>
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
+            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C26">
-            <v>881.5</v>
-          </cell>
-          <cell r="E26">
-            <v>726.5</v>
-          </cell>
-          <cell r="F26">
-            <v>16</v>
-          </cell>
-          <cell r="G26">
-            <v>1</v>
-          </cell>
-          <cell r="J26">
-            <v>1298</v>
-          </cell>
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>145.30000000000001</v>
-          </cell>
-          <cell r="M26">
-            <v>429.60000000000014</v>
-          </cell>
-          <cell r="P26">
-            <v>12</v>
-          </cell>
-          <cell r="Q26">
-            <v>9.0433585684790074</v>
-          </cell>
-          <cell r="R26">
-            <v>167.1</v>
-          </cell>
-          <cell r="S26">
-            <v>127.6</v>
-          </cell>
-          <cell r="T26">
-            <v>163.6</v>
-          </cell>
-          <cell r="V26">
-            <v>429.60000000000014</v>
-          </cell>
-          <cell r="Y26">
-            <v>5.5</v>
+            <v>Окт</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C27">
-            <v>66</v>
-          </cell>
-          <cell r="E27">
-            <v>6</v>
-          </cell>
-          <cell r="F27">
-            <v>60</v>
-          </cell>
-          <cell r="G27">
-            <v>0.33</v>
-          </cell>
-          <cell r="J27">
-            <v>24</v>
-          </cell>
-          <cell r="K27">
-            <v>0</v>
-          </cell>
-          <cell r="L27">
-            <v>1.2</v>
-          </cell>
-          <cell r="P27">
-            <v>70</v>
-          </cell>
-          <cell r="Q27">
-            <v>70</v>
-          </cell>
-          <cell r="R27">
-            <v>0</v>
-          </cell>
-          <cell r="S27">
-            <v>0</v>
-          </cell>
-          <cell r="T27">
-            <v>7.2</v>
-          </cell>
-          <cell r="V27">
-            <v>0</v>
-          </cell>
-          <cell r="Y27">
-            <v>6</v>
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C28">
-            <v>129</v>
-          </cell>
-          <cell r="E28">
-            <v>60</v>
-          </cell>
-          <cell r="G28">
-            <v>1</v>
-          </cell>
-          <cell r="J28">
-            <v>399</v>
-          </cell>
-          <cell r="K28">
-            <v>0</v>
-          </cell>
-          <cell r="L28">
-            <v>12</v>
-          </cell>
-          <cell r="P28">
-            <v>33.25</v>
-          </cell>
-          <cell r="Q28">
-            <v>33.25</v>
-          </cell>
-          <cell r="R28">
-            <v>0</v>
-          </cell>
-          <cell r="S28">
-            <v>0</v>
-          </cell>
-          <cell r="T28">
-            <v>48</v>
-          </cell>
-          <cell r="V28">
-            <v>0</v>
-          </cell>
-          <cell r="Y28">
-            <v>3</v>
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C29">
-            <v>900</v>
-          </cell>
-          <cell r="E29">
-            <v>751</v>
-          </cell>
-          <cell r="G29">
-            <v>0.25</v>
-          </cell>
-          <cell r="J29">
-            <v>900</v>
-          </cell>
-          <cell r="K29">
-            <v>0</v>
-          </cell>
-          <cell r="L29">
-            <v>150.19999999999999</v>
-          </cell>
-          <cell r="M29">
-            <v>902.39999999999986</v>
-          </cell>
-          <cell r="P29">
-            <v>12</v>
-          </cell>
-          <cell r="Q29">
-            <v>5.9920106524633825</v>
-          </cell>
-          <cell r="R29">
-            <v>148.80000000000001</v>
-          </cell>
-          <cell r="S29">
-            <v>86.2</v>
-          </cell>
-          <cell r="T29">
-            <v>131</v>
-          </cell>
-          <cell r="V29">
-            <v>225.59999999999997</v>
-          </cell>
-          <cell r="Y29">
-            <v>12</v>
+            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C30">
-            <v>48.6</v>
-          </cell>
-          <cell r="G30">
-            <v>1</v>
-          </cell>
-          <cell r="J30">
-            <v>239.4</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="L30">
-            <v>0</v>
-          </cell>
-          <cell r="P30" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="Q30" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="R30">
-            <v>0</v>
-          </cell>
-          <cell r="S30">
-            <v>0</v>
-          </cell>
-          <cell r="T30">
-            <v>29.880000000000003</v>
-          </cell>
-          <cell r="V30">
-            <v>0</v>
-          </cell>
-          <cell r="Y30">
-            <v>1.8</v>
+            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C31">
-            <v>1440</v>
-          </cell>
-          <cell r="D31">
-            <v>12</v>
-          </cell>
-          <cell r="E31">
-            <v>1187</v>
-          </cell>
-          <cell r="F31">
-            <v>63</v>
-          </cell>
-          <cell r="G31">
-            <v>0.25</v>
-          </cell>
-          <cell r="J31">
-            <v>696</v>
-          </cell>
-          <cell r="K31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>237.4</v>
-          </cell>
-          <cell r="M31">
-            <v>2089.8000000000002</v>
-          </cell>
-          <cell r="P31">
-            <v>12</v>
-          </cell>
-          <cell r="Q31">
-            <v>3.1971356360572871</v>
-          </cell>
-          <cell r="R31">
-            <v>199.6</v>
-          </cell>
-          <cell r="S31">
-            <v>173.6</v>
-          </cell>
-          <cell r="T31">
-            <v>153.4</v>
-          </cell>
-          <cell r="V31">
-            <v>522.45000000000005</v>
-          </cell>
-          <cell r="Y31">
-            <v>12</v>
+            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>шт</v>
-          </cell>
-          <cell r="C32">
-            <v>1182</v>
-          </cell>
-          <cell r="D32">
-            <v>12</v>
-          </cell>
-          <cell r="E32">
-            <v>1019</v>
-          </cell>
-          <cell r="G32">
-            <v>0.25</v>
-          </cell>
-          <cell r="J32">
-            <v>900</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>203.8</v>
-          </cell>
-          <cell r="M32">
-            <v>1545.6000000000004</v>
-          </cell>
-          <cell r="P32">
-            <v>12.000000000000002</v>
-          </cell>
-          <cell r="Q32">
-            <v>4.4160942100098133</v>
-          </cell>
-          <cell r="R32">
-            <v>184</v>
-          </cell>
-          <cell r="S32">
-            <v>152</v>
-          </cell>
-          <cell r="T32">
-            <v>147.19999999999999</v>
-          </cell>
-          <cell r="V32">
-            <v>386.40000000000009</v>
-          </cell>
-          <cell r="Y32">
-            <v>12</v>
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C33">
-            <v>450.9</v>
-          </cell>
-          <cell r="E33">
-            <v>202.5</v>
-          </cell>
-          <cell r="G33">
-            <v>1</v>
-          </cell>
-          <cell r="J33">
-            <v>499.50000000000006</v>
-          </cell>
-          <cell r="K33">
-            <v>0</v>
-          </cell>
-          <cell r="L33">
-            <v>40.5</v>
-          </cell>
-          <cell r="P33">
-            <v>12.333333333333334</v>
-          </cell>
-          <cell r="Q33">
-            <v>12.333333333333334</v>
-          </cell>
-          <cell r="R33">
-            <v>38.32</v>
-          </cell>
-          <cell r="S33">
-            <v>0</v>
-          </cell>
-          <cell r="T33">
-            <v>55.620000000000005</v>
-          </cell>
-          <cell r="V33">
-            <v>0</v>
-          </cell>
-          <cell r="Y33">
-            <v>2.7</v>
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Окт</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Окт</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
             <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
           </cell>
-          <cell r="B34" t="str">
-            <v>кг</v>
-          </cell>
-          <cell r="C34">
-            <v>20</v>
-          </cell>
-          <cell r="G34">
-            <v>1</v>
-          </cell>
-          <cell r="J34">
-            <v>2600</v>
-          </cell>
-          <cell r="K34">
-            <v>0</v>
-          </cell>
-          <cell r="L34">
-            <v>0</v>
-          </cell>
-          <cell r="M34">
-            <v>500</v>
-          </cell>
-          <cell r="P34" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="Q34" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="R34">
-            <v>319</v>
-          </cell>
-          <cell r="S34">
-            <v>462</v>
-          </cell>
-          <cell r="T34">
-            <v>360</v>
-          </cell>
-          <cell r="V34">
-            <v>500</v>
-          </cell>
-          <cell r="Y34">
-            <v>5</v>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
           </cell>
         </row>
       </sheetData>
@@ -2324,15 +876,69 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>Период: 29.09.2023 - 06.10.2023</v>
+            <v>Период: 22.09.2023 - 29.09.2023</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Номенклатура</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>АКЦИИ</v>
+            <v>Склад</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Количество</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>крат</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>заяв</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>раз</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>заказ</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>заказ</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>заказ 1</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>заказ 2</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>коррекция</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>кон ост</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>ост без заказа</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>ср 07,09</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>ср 15,09</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>ср 22,09</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>коментарий</v>
+          </cell>
+          <cell r="V3" t="str">
+            <v>вес 1</v>
+          </cell>
+          <cell r="W3" t="str">
+            <v>вес 2</v>
+          </cell>
+          <cell r="X3" t="str">
+            <v>вес 3</v>
           </cell>
         </row>
         <row r="4">
@@ -2340,7 +946,72 @@
             <v>Номенклатура</v>
           </cell>
           <cell r="B4" t="str">
-            <v>АКЦИИ</v>
+            <v>Ед. Изм.</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Начальный остаток</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Приход</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Расход</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>Конечный остаток</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>17399.580000000002</v>
+          </cell>
+          <cell r="F5">
+            <v>12738.68</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>16820.86</v>
+          </cell>
+          <cell r="K5">
+            <v>1298.7</v>
+          </cell>
+          <cell r="L5">
+            <v>3479.9160000000006</v>
+          </cell>
+          <cell r="M5">
+            <v>16237.192000000001</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>0</v>
+          </cell>
+          <cell r="R5">
+            <v>3741.7999999999997</v>
+          </cell>
+          <cell r="S5">
+            <v>3455.4599999999996</v>
+          </cell>
+          <cell r="T5">
+            <v>4061.78</v>
+          </cell>
+          <cell r="V5">
+            <v>10162.26</v>
+          </cell>
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+          <cell r="X5">
+            <v>0</v>
+          </cell>
+          <cell r="Y5" t="str">
+            <v>крат кор</v>
           </cell>
         </row>
         <row r="6">
@@ -2348,7 +1019,52 @@
             <v>Готовые чебупели с ветчиной и сыром Горячая штучка 0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B6" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C6">
+            <v>1244</v>
+          </cell>
+          <cell r="E6">
+            <v>1041</v>
+          </cell>
+          <cell r="F6">
+            <v>1</v>
+          </cell>
+          <cell r="G6">
+            <v>0.3</v>
+          </cell>
+          <cell r="J6">
+            <v>1404</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>208.2</v>
+          </cell>
+          <cell r="M6">
+            <v>1093.3999999999996</v>
+          </cell>
+          <cell r="P6">
+            <v>11.999999999999998</v>
+          </cell>
+          <cell r="Q6">
+            <v>6.7483189241114321</v>
+          </cell>
+          <cell r="R6">
+            <v>179.6</v>
+          </cell>
+          <cell r="S6">
+            <v>186.8</v>
+          </cell>
+          <cell r="T6">
+            <v>202.2</v>
+          </cell>
+          <cell r="V6">
+            <v>328.01999999999987</v>
+          </cell>
+          <cell r="Y6">
+            <v>12</v>
           </cell>
         </row>
         <row r="7">
@@ -2356,181 +1072,1465 @@
             <v>Готовые чебупели сочные с мясом ТМ Горячая штучка  0,3кг зам  ПОКОМ</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C7">
+            <v>928</v>
+          </cell>
+          <cell r="D7">
+            <v>2196</v>
+          </cell>
+          <cell r="E7">
+            <v>682</v>
+          </cell>
+          <cell r="F7">
+            <v>2209</v>
+          </cell>
+          <cell r="G7">
+            <v>0.3</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>136.4</v>
+          </cell>
+          <cell r="P7">
+            <v>16.195014662756599</v>
+          </cell>
+          <cell r="Q7">
+            <v>16.195014662756599</v>
+          </cell>
+          <cell r="R7">
+            <v>197.8</v>
+          </cell>
+          <cell r="S7">
+            <v>184.4</v>
+          </cell>
+          <cell r="T7">
+            <v>261.60000000000002</v>
+          </cell>
+          <cell r="V7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>12</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>Готовые чебуреки Сочный мегачебурек.Готовые жареные.ВЕС  ПОКОМ</v>
           </cell>
+          <cell r="B8" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C8">
+            <v>490.56</v>
+          </cell>
+          <cell r="D8">
+            <v>4.4800000000000004</v>
+          </cell>
+          <cell r="E8">
+            <v>351.68</v>
+          </cell>
+          <cell r="F8">
+            <v>4.4800000000000004</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="J8">
+            <v>199.36</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>70.335999999999999</v>
+          </cell>
+          <cell r="M8">
+            <v>640.19199999999989</v>
+          </cell>
+          <cell r="P8">
+            <v>12</v>
+          </cell>
+          <cell r="Q8">
+            <v>2.8980891719745223</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>40.32</v>
+          </cell>
+          <cell r="V8">
+            <v>640.19199999999989</v>
+          </cell>
+          <cell r="Y8">
+            <v>2.2400000000000002</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>Жар-ладушки с клубникой и вишней. Жареные с начинкой.ВЕС  ПОКОМ</v>
           </cell>
+          <cell r="B9" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C9">
+            <v>218.3</v>
+          </cell>
+          <cell r="E9">
+            <v>107.3</v>
+          </cell>
+          <cell r="F9">
+            <v>96.2</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="J9">
+            <v>251.60000000000002</v>
+          </cell>
+          <cell r="K9">
+            <v>0</v>
+          </cell>
+          <cell r="L9">
+            <v>21.46</v>
+          </cell>
+          <cell r="P9">
+            <v>16.206896551724139</v>
+          </cell>
+          <cell r="Q9">
+            <v>16.206896551724139</v>
+          </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>32.56</v>
+          </cell>
+          <cell r="V9">
+            <v>0</v>
+          </cell>
+          <cell r="Y9">
+            <v>3.7</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Круггетсы сочные ТМ Горячая штучка ТС Круггетсы 0,25 кг зам  ПОКОМ</v>
+            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C10">
+            <v>585</v>
+          </cell>
+          <cell r="E10">
+            <v>343</v>
+          </cell>
+          <cell r="F10">
+            <v>242</v>
+          </cell>
+          <cell r="G10">
+            <v>1</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+          <cell r="L10">
+            <v>68.599999999999994</v>
+          </cell>
+          <cell r="M10">
+            <v>581.19999999999993</v>
+          </cell>
+          <cell r="P10">
+            <v>12</v>
+          </cell>
+          <cell r="Q10">
+            <v>3.5276967930029159</v>
+          </cell>
+          <cell r="R10">
+            <v>1.8</v>
+          </cell>
+          <cell r="S10">
+            <v>73.08</v>
+          </cell>
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="V10">
+            <v>581.19999999999993</v>
+          </cell>
+          <cell r="Y10">
+            <v>1.8</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Мини-сосиски в тесте "Фрайпики" 1,8кг ВЕС,  ПОКОМ</v>
+            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C11">
+            <v>281.2</v>
+          </cell>
+          <cell r="E11">
+            <v>140.6</v>
+          </cell>
+          <cell r="G11">
+            <v>1</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>1298.7</v>
+          </cell>
+          <cell r="L11">
+            <v>28.119999999999997</v>
+          </cell>
+          <cell r="P11">
+            <v>46.184210526315795</v>
+          </cell>
+          <cell r="Q11">
+            <v>46.184210526315795</v>
+          </cell>
+          <cell r="R11">
+            <v>160.69999999999999</v>
+          </cell>
+          <cell r="S11">
+            <v>35.58</v>
+          </cell>
+          <cell r="T11">
+            <v>177.6</v>
+          </cell>
+          <cell r="V11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>3.7</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Мини-сосиски в тесте "Фрайпики" 3,7кг ВЕС,  ПОКОМ</v>
+            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C12">
+            <v>1425</v>
+          </cell>
+          <cell r="D12">
+            <v>1218</v>
+          </cell>
+          <cell r="E12">
+            <v>867</v>
+          </cell>
+          <cell r="F12">
+            <v>1600</v>
+          </cell>
+          <cell r="G12">
+            <v>0.25</v>
+          </cell>
+          <cell r="J12">
+            <v>198</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>173.4</v>
+          </cell>
+          <cell r="M12">
+            <v>282.80000000000018</v>
+          </cell>
+          <cell r="P12">
+            <v>12</v>
+          </cell>
+          <cell r="Q12">
+            <v>10.369088811995386</v>
+          </cell>
+          <cell r="R12">
+            <v>203.2</v>
+          </cell>
+          <cell r="S12">
+            <v>98.2</v>
+          </cell>
+          <cell r="T12">
+            <v>196</v>
+          </cell>
+          <cell r="V12">
+            <v>70.700000000000045</v>
+          </cell>
+          <cell r="Y12">
+            <v>6</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Наггетсы из печи 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки замор.  ПОКОМ</v>
+            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C13">
+            <v>1825</v>
+          </cell>
+          <cell r="E13">
+            <v>1005</v>
+          </cell>
+          <cell r="F13">
+            <v>776</v>
+          </cell>
+          <cell r="G13">
+            <v>0.25</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>201</v>
+          </cell>
+          <cell r="M13">
+            <v>1636</v>
+          </cell>
+          <cell r="P13">
+            <v>12</v>
+          </cell>
+          <cell r="Q13">
+            <v>3.8606965174129355</v>
+          </cell>
+          <cell r="R13">
+            <v>156</v>
+          </cell>
+          <cell r="S13">
+            <v>216.2</v>
+          </cell>
+          <cell r="T13">
+            <v>138.19999999999999</v>
+          </cell>
+          <cell r="V13">
+            <v>409</v>
+          </cell>
+          <cell r="Y13">
+            <v>12</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Наггетсы Нагетосы Сочная курочка ТМ Горячая штучка 0,25 кг зам  ПОКОМ</v>
+            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
           </cell>
           <cell r="B14" t="str">
-            <v>Окт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C14">
+            <v>960</v>
+          </cell>
+          <cell r="D14">
+            <v>1140</v>
+          </cell>
+          <cell r="E14">
+            <v>732</v>
+          </cell>
+          <cell r="F14">
+            <v>1146</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
+          </cell>
+          <cell r="J14">
+            <v>252</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>146.4</v>
+          </cell>
+          <cell r="M14">
+            <v>358.80000000000018</v>
+          </cell>
+          <cell r="P14">
+            <v>12</v>
+          </cell>
+          <cell r="Q14">
+            <v>9.5491803278688518</v>
+          </cell>
+          <cell r="R14">
+            <v>99.6</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>206.4</v>
+          </cell>
+          <cell r="V14">
+            <v>358.80000000000018</v>
+          </cell>
+          <cell r="Y14">
+            <v>6</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Наггетсы с индейкой 0,25кг ТМ Вязанка ТС Няняггетсы Сливушки НД2 замор.  ПОКОМ</v>
+            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C15">
+            <v>274</v>
+          </cell>
+          <cell r="D15">
+            <v>160</v>
+          </cell>
+          <cell r="E15">
+            <v>202</v>
+          </cell>
+          <cell r="F15">
+            <v>34</v>
+          </cell>
+          <cell r="G15">
+            <v>0.75</v>
+          </cell>
+          <cell r="J15">
+            <v>280</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>40.4</v>
+          </cell>
+          <cell r="M15">
+            <v>170.79999999999995</v>
+          </cell>
+          <cell r="P15">
+            <v>12</v>
+          </cell>
+          <cell r="Q15">
+            <v>7.772277227722773</v>
+          </cell>
+          <cell r="R15">
+            <v>42.4</v>
+          </cell>
+          <cell r="S15">
+            <v>39.799999999999997</v>
+          </cell>
+          <cell r="T15">
+            <v>37</v>
+          </cell>
+          <cell r="V15">
+            <v>128.09999999999997</v>
+          </cell>
+          <cell r="Y15">
+            <v>8</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Наггетсы хрустящие п/ф ВЕС ПОКОМ</v>
+            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C16">
+            <v>879</v>
+          </cell>
+          <cell r="D16">
+            <v>8</v>
+          </cell>
+          <cell r="E16">
+            <v>417</v>
+          </cell>
+          <cell r="F16">
+            <v>370</v>
+          </cell>
+          <cell r="G16">
+            <v>0.9</v>
+          </cell>
+          <cell r="J16">
+            <v>32</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>83.4</v>
+          </cell>
+          <cell r="M16">
+            <v>598.80000000000007</v>
+          </cell>
+          <cell r="P16">
+            <v>12</v>
+          </cell>
+          <cell r="Q16">
+            <v>4.8201438848920857</v>
+          </cell>
+          <cell r="R16">
+            <v>90.8</v>
+          </cell>
+          <cell r="S16">
+            <v>99</v>
+          </cell>
+          <cell r="T16">
+            <v>67.2</v>
+          </cell>
+          <cell r="V16">
+            <v>538.92000000000007</v>
+          </cell>
+          <cell r="Y16">
+            <v>8</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Пельмени Grandmeni со сливочным маслом Горячая штучка 0,75 кг ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C17">
+            <v>1988</v>
+          </cell>
+          <cell r="D17">
+            <v>1200</v>
+          </cell>
+          <cell r="E17">
+            <v>1248</v>
+          </cell>
+          <cell r="F17">
+            <v>1740</v>
+          </cell>
+          <cell r="G17">
+            <v>0.9</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>249.6</v>
+          </cell>
+          <cell r="M17">
+            <v>1255.1999999999998</v>
+          </cell>
+          <cell r="P17">
+            <v>12</v>
+          </cell>
+          <cell r="Q17">
+            <v>6.9711538461538467</v>
+          </cell>
+          <cell r="R17">
+            <v>207.6</v>
+          </cell>
+          <cell r="S17">
+            <v>254.8</v>
+          </cell>
+          <cell r="T17">
+            <v>238.8</v>
+          </cell>
+          <cell r="V17">
+            <v>1129.6799999999998</v>
+          </cell>
+          <cell r="Y17">
+            <v>8</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Пельмени Бигбули с мясом, Горячая штучка 0,9кг  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C18">
+            <v>265</v>
+          </cell>
+          <cell r="E18">
+            <v>150</v>
+          </cell>
+          <cell r="F18">
+            <v>95</v>
+          </cell>
+          <cell r="G18">
+            <v>0.43</v>
+          </cell>
+          <cell r="J18">
+            <v>128</v>
+          </cell>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
+          <cell r="L18">
+            <v>30</v>
+          </cell>
+          <cell r="M18">
+            <v>137</v>
+          </cell>
+          <cell r="P18">
+            <v>12</v>
+          </cell>
+          <cell r="Q18">
+            <v>7.4333333333333336</v>
+          </cell>
+          <cell r="R18">
+            <v>43</v>
+          </cell>
+          <cell r="S18">
+            <v>32.200000000000003</v>
+          </cell>
+          <cell r="T18">
+            <v>31</v>
+          </cell>
+          <cell r="V18">
+            <v>58.91</v>
+          </cell>
+          <cell r="Y18">
+            <v>16</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая шт. 0,9 кг  ПОКОМ</v>
+            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Окт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C19">
+            <v>3425</v>
+          </cell>
+          <cell r="E19">
+            <v>1907</v>
+          </cell>
+          <cell r="F19">
+            <v>1015</v>
+          </cell>
+          <cell r="G19">
+            <v>1</v>
+          </cell>
+          <cell r="J19">
+            <v>1800</v>
+          </cell>
+          <cell r="K19">
+            <v>0</v>
+          </cell>
+          <cell r="L19">
+            <v>381.4</v>
+          </cell>
+          <cell r="M19">
+            <v>1761.7999999999993</v>
+          </cell>
+          <cell r="P19">
+            <v>11.999999999999998</v>
+          </cell>
+          <cell r="Q19">
+            <v>7.3807026743576305</v>
+          </cell>
+          <cell r="R19">
+            <v>374</v>
+          </cell>
+          <cell r="S19">
+            <v>408</v>
+          </cell>
+          <cell r="T19">
+            <v>374</v>
+          </cell>
+          <cell r="V19">
+            <v>1761.7999999999993</v>
+          </cell>
+          <cell r="Y19">
+            <v>5</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Горячая штучка 0,43  ПОКОМ</v>
+            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C20">
+            <v>1652</v>
+          </cell>
+          <cell r="D20">
+            <v>1606</v>
+          </cell>
+          <cell r="E20">
+            <v>1035</v>
+          </cell>
+          <cell r="F20">
+            <v>1990</v>
+          </cell>
+          <cell r="G20">
+            <v>0.9</v>
+          </cell>
+          <cell r="J20">
+            <v>104</v>
+          </cell>
+          <cell r="K20">
+            <v>0</v>
+          </cell>
+          <cell r="L20">
+            <v>207</v>
+          </cell>
+          <cell r="M20">
+            <v>390</v>
+          </cell>
+          <cell r="P20">
+            <v>12</v>
+          </cell>
+          <cell r="Q20">
+            <v>10.115942028985508</v>
+          </cell>
+          <cell r="R20">
+            <v>198.8</v>
+          </cell>
+          <cell r="S20">
+            <v>230</v>
+          </cell>
+          <cell r="T20">
+            <v>243.4</v>
+          </cell>
+          <cell r="V20">
+            <v>351</v>
+          </cell>
+          <cell r="Y20">
+            <v>8</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Пельмени Бульмени с говядиной и свининой Наваристые Горячая штучка ВЕС  ПОКОМ</v>
+            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C21">
+            <v>629</v>
+          </cell>
+          <cell r="E21">
+            <v>209</v>
+          </cell>
+          <cell r="F21">
+            <v>368</v>
+          </cell>
+          <cell r="G21">
+            <v>0.43</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>41.8</v>
+          </cell>
+          <cell r="M21">
+            <v>133.59999999999997</v>
+          </cell>
+          <cell r="P21">
+            <v>12</v>
+          </cell>
+          <cell r="Q21">
+            <v>8.803827751196172</v>
+          </cell>
+          <cell r="R21">
+            <v>59.2</v>
+          </cell>
+          <cell r="S21">
+            <v>0.8</v>
+          </cell>
+          <cell r="T21">
+            <v>39.799999999999997</v>
+          </cell>
+          <cell r="V21">
+            <v>57.447999999999986</v>
+          </cell>
+          <cell r="Y21">
+            <v>16</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Окт</v>
+            <v>шт</v>
+          </cell>
+          <cell r="C22">
+            <v>217</v>
+          </cell>
+          <cell r="E22">
+            <v>152</v>
+          </cell>
+          <cell r="G22">
+            <v>0.7</v>
+          </cell>
+          <cell r="J22">
+            <v>400</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>30.4</v>
+          </cell>
+          <cell r="P22">
+            <v>13.157894736842106</v>
+          </cell>
+          <cell r="Q22">
+            <v>13.157894736842106</v>
+          </cell>
+          <cell r="R22">
+            <v>26.6</v>
+          </cell>
+          <cell r="S22">
+            <v>0</v>
+          </cell>
+          <cell r="T22">
+            <v>41.4</v>
+          </cell>
+          <cell r="V22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>8</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Пельмени Бульмени со сливочным маслом ТМ Горячая шт. 0,43 кг  ПОКОМ</v>
+            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C23">
+            <v>237</v>
+          </cell>
+          <cell r="D23">
+            <v>3</v>
+          </cell>
+          <cell r="E23">
+            <v>204</v>
+          </cell>
+          <cell r="F23">
+            <v>16</v>
+          </cell>
+          <cell r="G23">
+            <v>0.9</v>
+          </cell>
+          <cell r="J23">
+            <v>16</v>
+          </cell>
+          <cell r="K23">
+            <v>0</v>
+          </cell>
+          <cell r="L23">
+            <v>40.799999999999997</v>
+          </cell>
+          <cell r="M23">
+            <v>457.59999999999997</v>
+          </cell>
+          <cell r="P23">
+            <v>12</v>
+          </cell>
+          <cell r="Q23">
+            <v>0.78431372549019618</v>
+          </cell>
+          <cell r="R23">
+            <v>33.4</v>
+          </cell>
+          <cell r="S23">
+            <v>30.6</v>
+          </cell>
+          <cell r="T23">
+            <v>18.8</v>
+          </cell>
+          <cell r="V23">
+            <v>411.84</v>
+          </cell>
+          <cell r="Y23">
+            <v>8</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Пельмени Мясорубские ТМ Стародворье фоу-пак равиоли 0,7 кг.  Поком</v>
+            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Окт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C24">
+            <v>2575</v>
+          </cell>
+          <cell r="E24">
+            <v>1435</v>
+          </cell>
+          <cell r="F24">
+            <v>690</v>
+          </cell>
+          <cell r="G24">
+            <v>1</v>
+          </cell>
+          <cell r="J24">
+            <v>2400</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>287</v>
+          </cell>
+          <cell r="M24">
+            <v>354</v>
+          </cell>
+          <cell r="P24">
+            <v>12</v>
+          </cell>
+          <cell r="Q24">
+            <v>10.766550522648084</v>
+          </cell>
+          <cell r="R24">
+            <v>379.48</v>
+          </cell>
+          <cell r="S24">
+            <v>329</v>
+          </cell>
+          <cell r="T24">
+            <v>362</v>
+          </cell>
+          <cell r="V24">
+            <v>354</v>
+          </cell>
+          <cell r="Y24">
+            <v>5</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Пельмени Отборные из свинины и говядины 0,9 кг ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C25">
+            <v>1695</v>
+          </cell>
+          <cell r="D25">
+            <v>140</v>
+          </cell>
+          <cell r="E25">
+            <v>1219</v>
+          </cell>
+          <cell r="F25">
+            <v>207</v>
+          </cell>
+          <cell r="G25">
+            <v>1</v>
+          </cell>
+          <cell r="J25">
+            <v>1800</v>
+          </cell>
+          <cell r="K25">
+            <v>0</v>
+          </cell>
+          <cell r="L25">
+            <v>243.8</v>
+          </cell>
+          <cell r="M25">
+            <v>918.60000000000036</v>
+          </cell>
+          <cell r="P25">
+            <v>12.000000000000002</v>
+          </cell>
+          <cell r="Q25">
+            <v>8.2321575061525838</v>
+          </cell>
+          <cell r="R25">
+            <v>231</v>
+          </cell>
+          <cell r="S25">
+            <v>235.6</v>
+          </cell>
+          <cell r="T25">
+            <v>257.60000000000002</v>
+          </cell>
+          <cell r="V25">
+            <v>918.60000000000036</v>
+          </cell>
+          <cell r="Y25">
+            <v>5</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Пельмени Отборные с говядиной 0,9 кг НОВА ТМ Стародворье ТС Медвежье ушко  ПОКОМ</v>
+            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Окт</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C26">
+            <v>881.5</v>
+          </cell>
+          <cell r="E26">
+            <v>726.5</v>
+          </cell>
+          <cell r="F26">
+            <v>16</v>
+          </cell>
+          <cell r="G26">
+            <v>1</v>
+          </cell>
+          <cell r="J26">
+            <v>1298</v>
+          </cell>
+          <cell r="K26">
+            <v>0</v>
+          </cell>
+          <cell r="L26">
+            <v>145.30000000000001</v>
+          </cell>
+          <cell r="M26">
+            <v>429.60000000000014</v>
+          </cell>
+          <cell r="P26">
+            <v>12</v>
+          </cell>
+          <cell r="Q26">
+            <v>9.0433585684790074</v>
+          </cell>
+          <cell r="R26">
+            <v>167.1</v>
+          </cell>
+          <cell r="S26">
+            <v>127.6</v>
+          </cell>
+          <cell r="T26">
+            <v>163.6</v>
+          </cell>
+          <cell r="V26">
+            <v>429.60000000000014</v>
+          </cell>
+          <cell r="Y26">
+            <v>5.5</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Пельмени С говядиной и свининой, ВЕС, ТМ Славница сфера пуговки  ПОКОМ</v>
+            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C27">
+            <v>66</v>
+          </cell>
+          <cell r="E27">
+            <v>6</v>
+          </cell>
+          <cell r="F27">
+            <v>60</v>
+          </cell>
+          <cell r="G27">
+            <v>0.33</v>
+          </cell>
+          <cell r="J27">
+            <v>24</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>1.2</v>
+          </cell>
+          <cell r="P27">
+            <v>70</v>
+          </cell>
+          <cell r="Q27">
+            <v>70</v>
+          </cell>
+          <cell r="R27">
+            <v>0</v>
+          </cell>
+          <cell r="S27">
+            <v>0</v>
+          </cell>
+          <cell r="T27">
+            <v>7.2</v>
+          </cell>
+          <cell r="V27">
+            <v>0</v>
+          </cell>
+          <cell r="Y27">
+            <v>6</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>Пельмени Со свининой и говядиной ТМ Особый рецепт Любимая ложка 1,0 кг  ПОКОМ</v>
+            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C28">
+            <v>129</v>
+          </cell>
+          <cell r="E28">
+            <v>60</v>
+          </cell>
+          <cell r="G28">
+            <v>1</v>
+          </cell>
+          <cell r="J28">
+            <v>399</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
+            <v>12</v>
+          </cell>
+          <cell r="P28">
+            <v>33.25</v>
+          </cell>
+          <cell r="Q28">
+            <v>33.25</v>
+          </cell>
+          <cell r="R28">
+            <v>0</v>
+          </cell>
+          <cell r="S28">
+            <v>0</v>
+          </cell>
+          <cell r="T28">
+            <v>48</v>
+          </cell>
+          <cell r="V28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>3</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>Снеки  ЖАР-мени ВЕС. рубленые в тесте замор.  ПОКОМ</v>
+            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C29">
+            <v>900</v>
+          </cell>
+          <cell r="E29">
+            <v>751</v>
+          </cell>
+          <cell r="G29">
+            <v>0.25</v>
+          </cell>
+          <cell r="J29">
+            <v>900</v>
+          </cell>
+          <cell r="K29">
+            <v>0</v>
+          </cell>
+          <cell r="L29">
+            <v>150.19999999999999</v>
+          </cell>
+          <cell r="M29">
+            <v>902.39999999999986</v>
+          </cell>
+          <cell r="P29">
+            <v>12</v>
+          </cell>
+          <cell r="Q29">
+            <v>5.9920106524633825</v>
+          </cell>
+          <cell r="R29">
+            <v>148.80000000000001</v>
+          </cell>
+          <cell r="S29">
+            <v>86.2</v>
+          </cell>
+          <cell r="T29">
+            <v>131</v>
+          </cell>
+          <cell r="V29">
+            <v>225.59999999999997</v>
+          </cell>
+          <cell r="Y29">
+            <v>12</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Сосиски Оригинальные заморож. ТМ Стародворье в вак 0,33 кг  Поком</v>
+            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C30">
+            <v>48.6</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="J30">
+            <v>239.4</v>
+          </cell>
+          <cell r="K30">
+            <v>0</v>
+          </cell>
+          <cell r="L30">
+            <v>0</v>
+          </cell>
+          <cell r="P30" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="Q30" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="R30">
+            <v>0</v>
+          </cell>
+          <cell r="S30">
+            <v>0</v>
+          </cell>
+          <cell r="T30">
+            <v>29.880000000000003</v>
+          </cell>
+          <cell r="V30">
+            <v>0</v>
+          </cell>
+          <cell r="Y30">
+            <v>1.8</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>Фрай-пицца с ветчиной и грибами 3,0 кг. ВЕС.  ПОКОМ</v>
+            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C31">
+            <v>1440</v>
+          </cell>
+          <cell r="D31">
+            <v>12</v>
+          </cell>
+          <cell r="E31">
+            <v>1187</v>
+          </cell>
+          <cell r="F31">
+            <v>63</v>
+          </cell>
+          <cell r="G31">
+            <v>0.25</v>
+          </cell>
+          <cell r="J31">
+            <v>696</v>
+          </cell>
+          <cell r="K31">
+            <v>0</v>
+          </cell>
+          <cell r="L31">
+            <v>237.4</v>
+          </cell>
+          <cell r="M31">
+            <v>2089.8000000000002</v>
+          </cell>
+          <cell r="P31">
+            <v>12</v>
+          </cell>
+          <cell r="Q31">
+            <v>3.1971356360572871</v>
+          </cell>
+          <cell r="R31">
+            <v>199.6</v>
+          </cell>
+          <cell r="S31">
+            <v>173.6</v>
+          </cell>
+          <cell r="T31">
+            <v>153.4</v>
+          </cell>
+          <cell r="V31">
+            <v>522.45000000000005</v>
+          </cell>
+          <cell r="Y31">
+            <v>12</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>Хотстеры ТМ Горячая штучка ТС Хотстеры 0,25 кг зам  ПОКОМ</v>
+            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C32">
+            <v>1182</v>
+          </cell>
+          <cell r="D32">
+            <v>12</v>
+          </cell>
+          <cell r="E32">
+            <v>1019</v>
+          </cell>
+          <cell r="G32">
+            <v>0.25</v>
+          </cell>
+          <cell r="J32">
+            <v>900</v>
+          </cell>
+          <cell r="K32">
+            <v>0</v>
+          </cell>
+          <cell r="L32">
+            <v>203.8</v>
+          </cell>
+          <cell r="M32">
+            <v>1545.6000000000004</v>
+          </cell>
+          <cell r="P32">
+            <v>12.000000000000002</v>
+          </cell>
+          <cell r="Q32">
+            <v>4.4160942100098133</v>
+          </cell>
+          <cell r="R32">
+            <v>184</v>
+          </cell>
+          <cell r="S32">
+            <v>152</v>
+          </cell>
+          <cell r="T32">
+            <v>147.19999999999999</v>
+          </cell>
+          <cell r="V32">
+            <v>386.40000000000009</v>
+          </cell>
+          <cell r="Y32">
+            <v>12</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</v>
+            <v>Чебуреки Мясные вес 2,7 кг Кулинарные изделия мясосодержащие рубленые в тесте жарен  ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C33">
+            <v>450.9</v>
+          </cell>
+          <cell r="E33">
+            <v>202.5</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
+          </cell>
+          <cell r="J33">
+            <v>499.50000000000006</v>
+          </cell>
+          <cell r="K33">
+            <v>0</v>
+          </cell>
+          <cell r="L33">
+            <v>40.5</v>
+          </cell>
+          <cell r="P33">
+            <v>12.333333333333334</v>
+          </cell>
+          <cell r="Q33">
+            <v>12.333333333333334</v>
+          </cell>
+          <cell r="R33">
+            <v>38.32</v>
+          </cell>
+          <cell r="S33">
+            <v>0</v>
+          </cell>
+          <cell r="T33">
+            <v>55.620000000000005</v>
+          </cell>
+          <cell r="V33">
+            <v>0</v>
+          </cell>
+          <cell r="Y33">
+            <v>2.7</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>Чебупицца курочка по-итальянски Горячая штучка 0,25 кг зам  ПОКОМ</v>
+            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Окт</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Чебупицца Пепперони ТМ Горячая штучка ТС Чебупицца 0.25кг зам  ПОКОМ</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Окт</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Чебуреки сочные, ВЕС, куриные жарен. зам  ПОКОМ</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>БОНУС_Пельмени Бульмени со сливочным маслом Горячая штучка 0,9 кг  ПОКОМ</v>
+            <v>кг</v>
+          </cell>
+          <cell r="C34">
+            <v>20</v>
+          </cell>
+          <cell r="G34">
+            <v>1</v>
+          </cell>
+          <cell r="J34">
+            <v>2600</v>
+          </cell>
+          <cell r="K34">
+            <v>0</v>
+          </cell>
+          <cell r="L34">
+            <v>0</v>
+          </cell>
+          <cell r="M34">
+            <v>500</v>
+          </cell>
+          <cell r="P34" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="Q34" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="R34">
+            <v>319</v>
+          </cell>
+          <cell r="S34">
+            <v>462</v>
+          </cell>
+          <cell r="T34">
+            <v>360</v>
+          </cell>
+          <cell r="V34">
+            <v>500</v>
+          </cell>
+          <cell r="Y34">
+            <v>5</v>
           </cell>
         </row>
       </sheetData>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -3166,11 +3166,11 @@
         <v>9</v>
       </c>
       <c r="B6" s="45" t="str">
+        <f>VLOOKUP(A6,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C6" s="7" t="str">
         <f>VLOOKUP(A6,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C6" s="7" t="str">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D6" s="9">
@@ -3186,7 +3186,7 @@
         <v>1552</v>
       </c>
       <c r="H6" s="20">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.3</v>
       </c>
       <c r="M6" s="2">
@@ -3212,15 +3212,15 @@
         <v>8.2641107561235359</v>
       </c>
       <c r="T6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$S,19,0)</f>
         <v>186.8</v>
       </c>
       <c r="U6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$T,20,0)</f>
         <v>202.2</v>
       </c>
       <c r="V6" s="2">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$L,12,0)</f>
         <v>208.2</v>
       </c>
       <c r="X6" s="2">
@@ -3228,7 +3228,7 @@
         <v>266.82</v>
       </c>
       <c r="AA6" s="20">
-        <f>VLOOKUP(A6,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A6,[2]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
       <c r="AB6" s="34">
@@ -3256,11 +3256,11 @@
         <v>10</v>
       </c>
       <c r="B7" s="45" t="str">
+        <f>VLOOKUP(A7,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C7" s="7" t="str">
         <f>VLOOKUP(A7,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C7" s="7" t="str">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D7" s="9">
@@ -3276,7 +3276,7 @@
         <v>1100</v>
       </c>
       <c r="H7" s="20">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.3</v>
       </c>
       <c r="M7" s="2">
@@ -3302,15 +3302,15 @@
         <v>5.013673655423883</v>
       </c>
       <c r="T7" s="2">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$S,19,0)</f>
         <v>184.4</v>
       </c>
       <c r="U7" s="2">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$T,20,0)</f>
         <v>261.60000000000002</v>
       </c>
       <c r="V7" s="2">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$L,12,0)</f>
         <v>136.4</v>
       </c>
       <c r="X7" s="2">
@@ -3318,7 +3318,7 @@
         <v>525.66000000000008</v>
       </c>
       <c r="AA7" s="20">
-        <f>VLOOKUP(A7,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A7,[2]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
       <c r="AB7" s="36">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D8" s="9">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="20">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M8" s="2">
@@ -3387,15 +3387,15 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$T,20,0)</f>
         <v>40.32</v>
       </c>
       <c r="V8" s="2">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$L,12,0)</f>
         <v>70.335999999999999</v>
       </c>
       <c r="X8" s="2">
@@ -3403,7 +3403,7 @@
         <v>358.84800000000001</v>
       </c>
       <c r="AA8" s="20">
-        <f>VLOOKUP(A8,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A8,[2]TDSheet!$A:$Y,25,0)</f>
         <v>2.2400000000000002</v>
       </c>
       <c r="AB8" s="36">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D9" s="9">
@@ -3446,7 +3446,7 @@
         <v>37</v>
       </c>
       <c r="H9" s="20">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M9" s="2">
@@ -3469,15 +3469,15 @@
         <v>3.125</v>
       </c>
       <c r="T9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$T,20,0)</f>
         <v>32.56</v>
       </c>
       <c r="V9" s="2">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$L,12,0)</f>
         <v>21.46</v>
       </c>
       <c r="X9" s="2">
@@ -3485,7 +3485,7 @@
         <v>93.240000000000009</v>
       </c>
       <c r="AA9" s="20">
-        <f>VLOOKUP(A9,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A9,[2]TDSheet!$A:$Y,25,0)</f>
         <v>3.7</v>
       </c>
       <c r="AB9" s="36">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D10" s="9">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="20">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M10" s="2">
@@ -3553,15 +3553,15 @@
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$S,19,0)</f>
         <v>73.08</v>
       </c>
       <c r="U10" s="2">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$T,20,0)</f>
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$L,12,0)</f>
         <v>68.599999999999994</v>
       </c>
       <c r="X10" s="2">
@@ -3569,7 +3569,7 @@
         <v>434.15999999999997</v>
       </c>
       <c r="AA10" s="20">
-        <f>VLOOKUP(A10,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A10,[2]TDSheet!$A:$Y,25,0)</f>
         <v>1.8</v>
       </c>
       <c r="AB10" s="36">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D11" s="8"/>
@@ -3612,7 +3612,7 @@
         <v>1084.0999999999999</v>
       </c>
       <c r="H11" s="20">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M11" s="2">
@@ -3635,15 +3635,15 @@
         <v>25.258620689655171</v>
       </c>
       <c r="T11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$S,19,0)</f>
         <v>35.58</v>
       </c>
       <c r="U11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$T,20,0)</f>
         <v>177.6</v>
       </c>
       <c r="V11" s="2">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$L,12,0)</f>
         <v>28.119999999999997</v>
       </c>
       <c r="X11" s="2">
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="20">
-        <f>VLOOKUP(A11,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A11,[2]TDSheet!$A:$Y,25,0)</f>
         <v>3.7</v>
       </c>
       <c r="AB11" s="36">
@@ -3680,11 +3680,11 @@
         <v>15</v>
       </c>
       <c r="B12" s="45" t="str">
+        <f>VLOOKUP(A12,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C12" s="7" t="str">
         <f>VLOOKUP(A12,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C12" s="7" t="str">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D12" s="9">
@@ -3700,7 +3700,7 @@
         <v>1283</v>
       </c>
       <c r="H12" s="20">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M12" s="2">
@@ -3726,15 +3726,15 @@
         <v>7.9887920298879207</v>
       </c>
       <c r="T12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$S,19,0)</f>
         <v>98.2</v>
       </c>
       <c r="U12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$T,20,0)</f>
         <v>196</v>
       </c>
       <c r="V12" s="2">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$L,12,0)</f>
         <v>173.4</v>
       </c>
       <c r="X12" s="2">
@@ -3742,7 +3742,7 @@
         <v>201.19999999999993</v>
       </c>
       <c r="AA12" s="20">
-        <f>VLOOKUP(A12,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A12,[2]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
       <c r="AB12" s="36">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="str">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D13" s="9">
@@ -3787,7 +3787,7 @@
         <v>-5</v>
       </c>
       <c r="H13" s="20">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M13" s="2">
@@ -3813,15 +3813,15 @@
         <v>-3.1172069825436407E-2</v>
       </c>
       <c r="T13" s="2">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$S,19,0)</f>
         <v>216.2</v>
       </c>
       <c r="U13" s="2">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$T,20,0)</f>
         <v>138.19999999999999</v>
       </c>
       <c r="V13" s="2">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$L,12,0)</f>
         <v>201</v>
       </c>
       <c r="X13" s="2">
@@ -3829,7 +3829,7 @@
         <v>362.15000000000003</v>
       </c>
       <c r="AA13" s="20">
-        <f>VLOOKUP(A13,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A13,[2]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
       <c r="AB13" s="36">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="str">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D14" s="9">
@@ -3874,7 +3874,7 @@
         <v>426</v>
       </c>
       <c r="H14" s="20">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M14" s="2">
@@ -3900,15 +3900,15 @@
         <v>3.0084745762711864</v>
       </c>
       <c r="T14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$T,20,0)</f>
         <v>206.4</v>
       </c>
       <c r="V14" s="2">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$L,12,0)</f>
         <v>146.4</v>
       </c>
       <c r="X14" s="2">
@@ -3916,7 +3916,7 @@
         <v>1273.1999999999998</v>
       </c>
       <c r="AA14" s="20">
-        <f>VLOOKUP(A14,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A14,[2]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
       <c r="AB14" s="36">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="str">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D15" s="9">
@@ -3961,7 +3961,7 @@
         <v>144</v>
       </c>
       <c r="H15" s="20">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.75</v>
       </c>
       <c r="M15" s="2">
@@ -3987,15 +3987,15 @@
         <v>2.1301775147928996</v>
       </c>
       <c r="T15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$S,19,0)</f>
         <v>39.799999999999997</v>
       </c>
       <c r="U15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$T,20,0)</f>
         <v>37</v>
       </c>
       <c r="V15" s="2">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$L,12,0)</f>
         <v>40.4</v>
       </c>
       <c r="X15" s="2">
@@ -4003,7 +4003,7 @@
         <v>449.69999999999993</v>
       </c>
       <c r="AA15" s="20">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A15,[2]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
       <c r="AB15" s="36">
@@ -4031,11 +4031,11 @@
         <v>19</v>
       </c>
       <c r="B16" s="45" t="str">
+        <f>VLOOKUP(A16,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C16" s="7" t="str">
         <f>VLOOKUP(A16,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D16" s="9">
@@ -4051,7 +4051,7 @@
         <v>669</v>
       </c>
       <c r="H16" s="20">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M16" s="2">
@@ -4077,15 +4077,15 @@
         <v>10.045045045045045</v>
       </c>
       <c r="T16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$S,19,0)</f>
         <v>99</v>
       </c>
       <c r="U16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$T,20,0)</f>
         <v>67.2</v>
       </c>
       <c r="V16" s="2">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$L,12,0)</f>
         <v>83.4</v>
       </c>
       <c r="X16" s="2">
@@ -4093,7 +4093,7 @@
         <v>177.11999999999998</v>
       </c>
       <c r="AA16" s="20">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A16,[2]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
       <c r="AB16" s="36">
@@ -4121,11 +4121,11 @@
         <v>20</v>
       </c>
       <c r="B17" s="45" t="str">
+        <f>VLOOKUP(A17,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C17" s="7" t="str">
         <f>VLOOKUP(A17,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C17" s="7" t="str">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D17" s="9">
@@ -4141,7 +4141,7 @@
         <v>2163</v>
       </c>
       <c r="H17" s="20">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M17" s="2">
@@ -4167,15 +4167,15 @@
         <v>12.983193277310924</v>
       </c>
       <c r="T17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$S,19,0)</f>
         <v>254.8</v>
       </c>
       <c r="U17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$T,20,0)</f>
         <v>238.8</v>
       </c>
       <c r="V17" s="2">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$L,12,0)</f>
         <v>249.6</v>
       </c>
       <c r="X17" s="2">
@@ -4183,7 +4183,7 @@
         <v>2.5199999999997544</v>
       </c>
       <c r="AA17" s="20">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A17,[2]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
       <c r="AB17" s="36">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="str">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D18" s="9">
@@ -4228,7 +4228,7 @@
         <v>212</v>
       </c>
       <c r="H18" s="20">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.43</v>
       </c>
       <c r="M18" s="2">
@@ -4254,15 +4254,15 @@
         <v>6.838709677419355</v>
       </c>
       <c r="T18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$S,19,0)</f>
         <v>32.200000000000003</v>
       </c>
       <c r="U18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$T,20,0)</f>
         <v>31</v>
       </c>
       <c r="V18" s="2">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$L,12,0)</f>
         <v>30</v>
       </c>
       <c r="X18" s="2">
@@ -4270,7 +4270,7 @@
         <v>82.13</v>
       </c>
       <c r="AA18" s="20">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A18,[2]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
       <c r="AB18" s="36">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="str">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D19" s="9">
@@ -4315,7 +4315,7 @@
         <v>2870</v>
       </c>
       <c r="H19" s="20">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M19" s="2">
@@ -4341,15 +4341,15 @@
         <v>8.294797687861271</v>
       </c>
       <c r="T19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$S,19,0)</f>
         <v>408</v>
       </c>
       <c r="U19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$T,20,0)</f>
         <v>374</v>
       </c>
       <c r="V19" s="2">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$L,12,0)</f>
         <v>381.4</v>
       </c>
       <c r="X19" s="2">
@@ -4357,7 +4357,7 @@
         <v>1628</v>
       </c>
       <c r="AA19" s="20">
-        <f>VLOOKUP(A19,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A19,[2]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
       <c r="AB19" s="36">
@@ -4385,11 +4385,11 @@
         <v>23</v>
       </c>
       <c r="B20" s="45" t="str">
+        <f>VLOOKUP(A20,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C20" s="7" t="str">
         <f>VLOOKUP(A20,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D20" s="9">
@@ -4406,7 +4406,7 @@
         <v>1473</v>
       </c>
       <c r="H20" s="20">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M20" s="2">
@@ -4432,15 +4432,15 @@
         <v>7.3356573705179278</v>
       </c>
       <c r="T20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$S,19,0)</f>
         <v>230</v>
       </c>
       <c r="U20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$T,20,0)</f>
         <v>243.4</v>
       </c>
       <c r="V20" s="2">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$L,12,0)</f>
         <v>207</v>
       </c>
       <c r="X20" s="2">
@@ -4448,7 +4448,7 @@
         <v>1023.6600000000001</v>
       </c>
       <c r="AA20" s="20">
-        <f>VLOOKUP(A20,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A20,[2]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
       <c r="AB20" s="36">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="str">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D21" s="9">
@@ -4493,7 +4493,7 @@
         <v>327</v>
       </c>
       <c r="H21" s="20">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.43</v>
       </c>
       <c r="M21" s="2">
@@ -4519,15 +4519,15 @@
         <v>9.7904191616766472</v>
       </c>
       <c r="T21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$S,19,0)</f>
         <v>0.8</v>
       </c>
       <c r="U21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$T,20,0)</f>
         <v>39.799999999999997</v>
       </c>
       <c r="V21" s="2">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$L,12,0)</f>
         <v>41.8</v>
       </c>
       <c r="X21" s="2">
@@ -4535,7 +4535,7 @@
         <v>46.095999999999997</v>
       </c>
       <c r="AA21" s="20">
-        <f>VLOOKUP(A21,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A21,[2]TDSheet!$A:$Y,25,0)</f>
         <v>16</v>
       </c>
       <c r="AB21" s="36">
@@ -4563,11 +4563,11 @@
         <v>25</v>
       </c>
       <c r="B22" s="45" t="str">
+        <f>VLOOKUP(A22,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C22" s="7" t="str">
         <f>VLOOKUP(A22,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C22" s="7" t="str">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D22" s="8"/>
@@ -4581,7 +4581,7 @@
         <v>135</v>
       </c>
       <c r="H22" s="20">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.7</v>
       </c>
       <c r="M22" s="2">
@@ -4607,15 +4607,15 @@
         <v>2.5471698113207548</v>
       </c>
       <c r="T22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$T,20,0)</f>
         <v>41.4</v>
       </c>
       <c r="V22" s="2">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$L,12,0)</f>
         <v>30.4</v>
       </c>
       <c r="X22" s="2">
@@ -4623,7 +4623,7 @@
         <v>313.59999999999997</v>
       </c>
       <c r="AA22" s="20">
-        <f>VLOOKUP(A22,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A22,[2]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
       <c r="AB22" s="36">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="str">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D23" s="9">
@@ -4668,7 +4668,7 @@
         <v>454</v>
       </c>
       <c r="H23" s="20">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.9</v>
       </c>
       <c r="M23" s="2">
@@ -4691,15 +4691,15 @@
         <v>87.307692307692307</v>
       </c>
       <c r="T23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$S,19,0)</f>
         <v>30.6</v>
       </c>
       <c r="U23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$T,20,0)</f>
         <v>18.8</v>
       </c>
       <c r="V23" s="2">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$L,12,0)</f>
         <v>40.799999999999997</v>
       </c>
       <c r="X23" s="2">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="20">
-        <f>VLOOKUP(A23,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A23,[2]TDSheet!$A:$Y,25,0)</f>
         <v>8</v>
       </c>
       <c r="AB23" s="36">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="str">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D24" s="9">
@@ -4753,7 +4753,7 @@
         <v>1805</v>
       </c>
       <c r="H24" s="20">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M24" s="2">
@@ -4779,15 +4779,15 @@
         <v>5.6230529595015577</v>
       </c>
       <c r="T24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$S,19,0)</f>
         <v>329</v>
       </c>
       <c r="U24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$T,20,0)</f>
         <v>362</v>
       </c>
       <c r="V24" s="2">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$L,12,0)</f>
         <v>287</v>
       </c>
       <c r="X24" s="2">
@@ -4795,7 +4795,7 @@
         <v>2368</v>
       </c>
       <c r="AA24" s="20">
-        <f>VLOOKUP(A24,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A24,[2]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
       <c r="AB24" s="36">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="str">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D25" s="9">
@@ -4840,7 +4840,7 @@
         <v>1793</v>
       </c>
       <c r="H25" s="20">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M25" s="2">
@@ -4866,15 +4866,15 @@
         <v>7.8640350877192979</v>
       </c>
       <c r="T25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$S,19,0)</f>
         <v>235.6</v>
       </c>
       <c r="U25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$T,20,0)</f>
         <v>257.60000000000002</v>
       </c>
       <c r="V25" s="2">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$L,12,0)</f>
         <v>243.8</v>
       </c>
       <c r="X25" s="2">
@@ -4882,7 +4882,7 @@
         <v>1171</v>
       </c>
       <c r="AA25" s="20">
-        <f>VLOOKUP(A25,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A25,[2]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
       <c r="AB25" s="36">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="str">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D26" s="9">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="20">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M26" s="2">
@@ -4951,15 +4951,15 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$S,19,0)</f>
         <v>127.6</v>
       </c>
       <c r="U26" s="2">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$T,20,0)</f>
         <v>163.6</v>
       </c>
       <c r="V26" s="2">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$L,12,0)</f>
         <v>145.30000000000001</v>
       </c>
       <c r="X26" s="2">
@@ -4967,7 +4967,7 @@
         <v>29.7</v>
       </c>
       <c r="AA26" s="20">
-        <f>VLOOKUP(A26,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A26,[2]TDSheet!$A:$Y,25,0)</f>
         <v>5.5</v>
       </c>
       <c r="AB26" s="36">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="str">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D27" s="9">
@@ -5010,7 +5010,7 @@
         <v>84</v>
       </c>
       <c r="H27" s="20">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.33</v>
       </c>
       <c r="M27" s="2">
@@ -5033,15 +5033,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="2">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U27" s="2">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$T,20,0)</f>
         <v>7.2</v>
       </c>
       <c r="V27" s="2">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$L,12,0)</f>
         <v>1.2</v>
       </c>
       <c r="X27" s="2">
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="20">
-        <f>VLOOKUP(A27,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A27,[2]TDSheet!$A:$Y,25,0)</f>
         <v>6</v>
       </c>
       <c r="AB27" s="36">
@@ -5086,7 +5086,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="20">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M28" s="2">
@@ -5109,15 +5109,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$T,20,0)</f>
         <v>48</v>
       </c>
       <c r="V28" s="2">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$L,12,0)</f>
         <v>12</v>
       </c>
       <c r="X28" s="2">
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="20">
-        <f>VLOOKUP(A28,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A28,[2]TDSheet!$A:$Y,25,0)</f>
         <v>3</v>
       </c>
       <c r="AB28" s="36">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="str">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D29" s="9">
@@ -5171,7 +5171,7 @@
         <v>166</v>
       </c>
       <c r="H29" s="20">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M29" s="2">
@@ -5197,15 +5197,15 @@
         <v>1.129251700680272</v>
       </c>
       <c r="T29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$S,19,0)</f>
         <v>86.2</v>
       </c>
       <c r="U29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$T,20,0)</f>
         <v>131</v>
       </c>
       <c r="V29" s="2">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$L,12,0)</f>
         <v>150.19999999999999</v>
       </c>
       <c r="X29" s="2">
@@ -5213,7 +5213,7 @@
         <v>326</v>
       </c>
       <c r="AA29" s="20">
-        <f>VLOOKUP(A29,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A29,[2]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
       <c r="AB29" s="36">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="str">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D30" s="8"/>
@@ -5256,7 +5256,7 @@
         <v>5.4</v>
       </c>
       <c r="H30" s="20">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M30" s="2">
@@ -5279,15 +5279,15 @@
         <v>0.1153846153846154</v>
       </c>
       <c r="T30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$T,20,0)</f>
         <v>29.880000000000003</v>
       </c>
       <c r="V30" s="2">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="X30" s="2">
@@ -5295,7 +5295,7 @@
         <v>415.8</v>
       </c>
       <c r="AA30" s="20">
-        <f>VLOOKUP(A30,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A30,[2]TDSheet!$A:$Y,25,0)</f>
         <v>1.8</v>
       </c>
       <c r="AB30" s="36">
@@ -5324,11 +5324,11 @@
         <v>33</v>
       </c>
       <c r="B31" s="45" t="str">
+        <f>VLOOKUP(A31,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C31" s="7" t="str">
         <f>VLOOKUP(A31,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C31" s="7" t="str">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D31" s="9">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="20">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M31" s="2">
@@ -5368,15 +5368,15 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$S,19,0)</f>
         <v>173.6</v>
       </c>
       <c r="U31" s="2">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$T,20,0)</f>
         <v>153.4</v>
       </c>
       <c r="V31" s="2">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$L,12,0)</f>
         <v>237.4</v>
       </c>
       <c r="X31" s="2">
@@ -5384,7 +5384,7 @@
         <v>349.65000000000003</v>
       </c>
       <c r="AA31" s="20">
-        <f>VLOOKUP(A31,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A31,[2]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
       <c r="AB31" s="36">
@@ -5412,11 +5412,11 @@
         <v>34</v>
       </c>
       <c r="B32" s="45" t="str">
+        <f>VLOOKUP(A32,[1]TDSheet!$A:$B,2,0)</f>
+        <v>Окт</v>
+      </c>
+      <c r="C32" s="7" t="str">
         <f>VLOOKUP(A32,[2]TDSheet!$A:$B,2,0)</f>
-        <v>Окт</v>
-      </c>
-      <c r="C32" s="7" t="str">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$B,2,0)</f>
         <v>шт</v>
       </c>
       <c r="D32" s="9">
@@ -5432,7 +5432,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="20">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$G,7,0)</f>
         <v>0.25</v>
       </c>
       <c r="M32" s="2">
@@ -5458,15 +5458,15 @@
         <v>8.4745762711864403E-2</v>
       </c>
       <c r="T32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$S,19,0)</f>
         <v>152</v>
       </c>
       <c r="U32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$T,20,0)</f>
         <v>147.19999999999999</v>
       </c>
       <c r="V32" s="2">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$L,12,0)</f>
         <v>203.8</v>
       </c>
       <c r="X32" s="2">
@@ -5474,7 +5474,7 @@
         <v>394.5</v>
       </c>
       <c r="AA32" s="20">
-        <f>VLOOKUP(A32,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A32,[2]TDSheet!$A:$Y,25,0)</f>
         <v>12</v>
       </c>
       <c r="AB32" s="36">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="str">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D33" s="8"/>
@@ -5511,7 +5511,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="20">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M33" s="2">
@@ -5533,15 +5533,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="2">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$S,19,0)</f>
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$T,20,0)</f>
         <v>55.620000000000005</v>
       </c>
       <c r="V33" s="2">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$L,12,0)</f>
         <v>40.5</v>
       </c>
       <c r="X33" s="2">
@@ -5549,7 +5549,7 @@
         <v>250</v>
       </c>
       <c r="AA33" s="20">
-        <f>VLOOKUP(A33,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A33,[2]TDSheet!$A:$Y,25,0)</f>
         <v>2.7</v>
       </c>
       <c r="AB33" s="36">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="str">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$B,2,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$B,2,0)</f>
         <v>кг</v>
       </c>
       <c r="D34" s="8"/>
@@ -5587,7 +5587,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="20">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$G,7,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$G,7,0)</f>
         <v>1</v>
       </c>
       <c r="M34" s="2">
@@ -5613,15 +5613,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$S,19,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$S,19,0)</f>
         <v>462</v>
       </c>
       <c r="U34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$T,20,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$T,20,0)</f>
         <v>360</v>
       </c>
       <c r="V34" s="2">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$L,12,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$L,12,0)</f>
         <v>0</v>
       </c>
       <c r="X34" s="2">
@@ -5629,7 +5629,7 @@
         <v>4500</v>
       </c>
       <c r="AA34" s="20">
-        <f>VLOOKUP(A34,[1]TDSheet!$A:$Y,25,0)</f>
+        <f>VLOOKUP(A34,[2]TDSheet!$A:$Y,25,0)</f>
         <v>5</v>
       </c>
       <c r="AB34" s="36">
